--- a/frontend/public/assets/AudioClips/0Clip_List.xlsx
+++ b/frontend/public/assets/AudioClips/0Clip_List.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Documents\ELA\frontend\public\assets\AudioClips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaoyuting/23 summer/ELA/frontend/public/assets/AudioClips/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CC99D-B97B-4EC8-A925-46D91DD36621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304540D9-5AE7-5C44-AA74-0B7235AC629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="27820" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,26 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Movie Title</t>
-  </si>
-  <si>
-    <t>Youtube Link ID</t>
-  </si>
-  <si>
     <t>Jaws</t>
   </si>
   <si>
     <t>Transformers</t>
   </si>
   <si>
-    <t>Mission Impossible</t>
-  </si>
-  <si>
     <t>The Godfather</t>
   </si>
   <si>
@@ -60,18 +51,9 @@
     <t>Gladiator</t>
   </si>
   <si>
-    <t>Back to the future</t>
-  </si>
-  <si>
     <t>Up</t>
   </si>
   <si>
-    <t>Superman - The Movie</t>
-  </si>
-  <si>
-    <t>Requiem for a dream</t>
-  </si>
-  <si>
     <t>The Dark Knight</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
     <t>Jurassic Park</t>
   </si>
   <si>
-    <t>ET</t>
-  </si>
-  <si>
     <t>Ghostbusters</t>
   </si>
   <si>
@@ -93,45 +72,12 @@
     <t>The Lion King</t>
   </si>
   <si>
-    <t>The Lord of the Ring - The Return of the King</t>
-  </si>
-  <si>
-    <t>Fast and The Furious</t>
-  </si>
-  <si>
-    <t>Star Wars Episode 1</t>
-  </si>
-  <si>
-    <t>Spider Man</t>
-  </si>
-  <si>
-    <t>Schindlers List</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Terminator 2 - Judgment Day</t>
-  </si>
-  <si>
-    <t>Once Upon A Time in the West</t>
-  </si>
-  <si>
-    <t>Rocky 4</t>
-  </si>
-  <si>
     <t>Titanic</t>
   </si>
   <si>
     <t>Pulp Fiction</t>
   </si>
   <si>
-    <t>Pirates of the Carabbean</t>
-  </si>
-  <si>
-    <t>The Good The Bad and The Ugly</t>
-  </si>
-  <si>
     <t>James Bond</t>
   </si>
   <si>
@@ -156,9 +102,6 @@
     <t>Source: https://www.youtube.com/watch?v=zR2wdj-VX_s</t>
   </si>
   <si>
-    <t>Harry Potter and the Sorceres Stone</t>
-  </si>
-  <si>
     <t>aHkLpZsYtR</t>
   </si>
   <si>
@@ -277,6 +220,60 @@
   </si>
   <si>
     <t>QwErTyUqWi</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Mission: Impossible</t>
+  </si>
+  <si>
+    <t>Back to the Future</t>
+  </si>
+  <si>
+    <t>E.T. the Extra-Terrestrial</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings: The Return of the King</t>
+  </si>
+  <si>
+    <t>The Fast and the Furious</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Spider-Man: Into the Spider-Verse</t>
+  </si>
+  <si>
+    <t>Schindler's List</t>
+  </si>
+  <si>
+    <t>Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgment Day</t>
+  </si>
+  <si>
+    <t>Once Upon a Time in the West</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
+    <t>The Good, the Bad and the Ugly</t>
+  </si>
+  <si>
+    <t>Requiem for a Dream</t>
+  </si>
+  <si>
+    <t>Superman: The Movie</t>
+  </si>
+  <si>
+    <t>movie_names</t>
   </si>
 </sst>
 </file>
@@ -322,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,355 +599,351 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>60</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B43" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>